--- a/副本 算法25期—五毒练习（复制到本地操作）.xlsx
+++ b/副本 算法25期—五毒练习（复制到本地操作）.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aaronsomelee/CurrentWork/geek-camp/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6D3DD37-F115-544E-B4FD-D952A920C902}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73EBEC9A-0BB1-C340-B25C-5569B9F3A375}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="20540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="85">
   <si>
     <t>题号</t>
   </si>
@@ -516,6 +516,9 @@
     <xf numFmtId="0" fontId="8" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -530,9 +533,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -861,8 +861,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q58"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="88" workbookViewId="0">
-      <selection activeCell="P19" sqref="P19"/>
+    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="113" workbookViewId="0">
+      <selection activeCell="L24" sqref="L24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -879,10 +879,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="19">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="28" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="27"/>
+      <c r="B1" s="28"/>
       <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
@@ -914,19 +914,19 @@
       <c r="Q1" s="2"/>
     </row>
     <row r="2" spans="1:17">
-      <c r="A2" s="28" t="s">
+      <c r="A2" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="28"/>
-      <c r="C2" s="29" t="s">
+      <c r="B2" s="29"/>
+      <c r="C2" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="29"/>
-      <c r="E2" s="29"/>
-      <c r="F2" s="29"/>
-      <c r="G2" s="29"/>
-      <c r="H2" s="29"/>
-      <c r="I2" s="29"/>
+      <c r="D2" s="30"/>
+      <c r="E2" s="30"/>
+      <c r="F2" s="30"/>
+      <c r="G2" s="30"/>
+      <c r="H2" s="30"/>
+      <c r="I2" s="30"/>
       <c r="J2" s="3"/>
       <c r="K2" s="3"/>
       <c r="L2" s="3"/>
@@ -937,17 +937,17 @@
       <c r="Q2" s="3"/>
     </row>
     <row r="3" spans="1:17" ht="24" customHeight="1">
-      <c r="A3" s="25" t="s">
+      <c r="A3" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="26"/>
-      <c r="C3" s="26"/>
-      <c r="D3" s="26"/>
-      <c r="E3" s="26"/>
-      <c r="F3" s="26"/>
-      <c r="G3" s="26"/>
-      <c r="H3" s="26"/>
-      <c r="I3" s="26"/>
+      <c r="B3" s="27"/>
+      <c r="C3" s="27"/>
+      <c r="D3" s="27"/>
+      <c r="E3" s="27"/>
+      <c r="F3" s="27"/>
+      <c r="G3" s="27"/>
+      <c r="H3" s="27"/>
+      <c r="I3" s="27"/>
       <c r="J3" s="4"/>
       <c r="K3" s="4"/>
       <c r="L3" s="4"/>
@@ -958,15 +958,15 @@
       <c r="Q3" s="4"/>
     </row>
     <row r="4" spans="1:17" ht="22" customHeight="1">
-      <c r="A4" s="25"/>
-      <c r="B4" s="26"/>
-      <c r="C4" s="26"/>
-      <c r="D4" s="26"/>
-      <c r="E4" s="26"/>
-      <c r="F4" s="26"/>
-      <c r="G4" s="26"/>
-      <c r="H4" s="26"/>
-      <c r="I4" s="26"/>
+      <c r="A4" s="26"/>
+      <c r="B4" s="27"/>
+      <c r="C4" s="27"/>
+      <c r="D4" s="27"/>
+      <c r="E4" s="27"/>
+      <c r="F4" s="27"/>
+      <c r="G4" s="27"/>
+      <c r="H4" s="27"/>
+      <c r="I4" s="27"/>
       <c r="J4" s="4"/>
       <c r="K4" s="4"/>
       <c r="L4" s="4"/>
@@ -1468,23 +1468,23 @@
       <c r="M19" s="4"/>
       <c r="N19" s="4"/>
       <c r="O19" s="4"/>
-      <c r="P19" s="30" t="s">
+      <c r="P19" s="25" t="s">
         <v>84</v>
       </c>
       <c r="Q19" s="4"/>
     </row>
     <row r="20" spans="1:17" ht="24" customHeight="1">
-      <c r="A20" s="25" t="s">
+      <c r="A20" s="26" t="s">
         <v>39</v>
       </c>
-      <c r="B20" s="26"/>
-      <c r="C20" s="26"/>
-      <c r="D20" s="26"/>
-      <c r="E20" s="26"/>
-      <c r="F20" s="26"/>
-      <c r="G20" s="26"/>
-      <c r="H20" s="26"/>
-      <c r="I20" s="26"/>
+      <c r="B20" s="27"/>
+      <c r="C20" s="27"/>
+      <c r="D20" s="27"/>
+      <c r="E20" s="27"/>
+      <c r="F20" s="27"/>
+      <c r="G20" s="27"/>
+      <c r="H20" s="27"/>
+      <c r="I20" s="27"/>
       <c r="J20" s="13"/>
       <c r="K20" s="13"/>
       <c r="L20" s="13"/>
@@ -1495,15 +1495,15 @@
       <c r="Q20" s="13"/>
     </row>
     <row r="21" spans="1:17" ht="22" customHeight="1">
-      <c r="A21" s="25"/>
-      <c r="B21" s="26"/>
-      <c r="C21" s="26"/>
-      <c r="D21" s="26"/>
-      <c r="E21" s="26"/>
-      <c r="F21" s="26"/>
-      <c r="G21" s="26"/>
-      <c r="H21" s="26"/>
-      <c r="I21" s="26"/>
+      <c r="A21" s="26"/>
+      <c r="B21" s="27"/>
+      <c r="C21" s="27"/>
+      <c r="D21" s="27"/>
+      <c r="E21" s="27"/>
+      <c r="F21" s="27"/>
+      <c r="G21" s="27"/>
+      <c r="H21" s="27"/>
+      <c r="I21" s="27"/>
       <c r="J21" s="13"/>
       <c r="K21" s="13"/>
       <c r="L21" s="13"/>
@@ -1524,7 +1524,9 @@
         <v>41</v>
       </c>
       <c r="D22" s="8"/>
-      <c r="E22" s="8"/>
+      <c r="E22" s="21">
+        <v>4.1100000000000003</v>
+      </c>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c r="H22" s="8"/>
@@ -1549,8 +1551,8 @@
         <v>43</v>
       </c>
       <c r="D23" s="8"/>
-      <c r="E23" s="8" t="s">
-        <v>13</v>
+      <c r="E23" s="21">
+        <v>4.1100000000000003</v>
       </c>
       <c r="F23" s="8" t="s">
         <v>13</v>
@@ -1584,8 +1586,8 @@
         <v>45</v>
       </c>
       <c r="D24" s="8"/>
-      <c r="E24" s="8" t="s">
-        <v>13</v>
+      <c r="E24" s="21">
+        <v>4.1100000000000003</v>
       </c>
       <c r="F24" s="8" t="s">
         <v>13</v>
@@ -1654,8 +1656,8 @@
         <v>49</v>
       </c>
       <c r="D26" s="8"/>
-      <c r="E26" s="8" t="s">
-        <v>13</v>
+      <c r="E26" s="24" t="s">
+        <v>83</v>
       </c>
       <c r="F26" s="8" t="s">
         <v>13</v>
@@ -2191,10 +2193,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="18" customHeight="1">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="28" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="27"/>
+      <c r="B1" s="28"/>
       <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
@@ -2227,19 +2229,19 @@
       <c r="R1" s="9"/>
     </row>
     <row r="2" spans="1:18" ht="57" customHeight="1">
-      <c r="A2" s="28" t="s">
+      <c r="A2" s="29" t="s">
         <v>56</v>
       </c>
-      <c r="B2" s="28"/>
-      <c r="C2" s="29" t="s">
+      <c r="B2" s="29"/>
+      <c r="C2" s="30" t="s">
         <v>57</v>
       </c>
-      <c r="D2" s="29"/>
-      <c r="E2" s="29"/>
-      <c r="F2" s="29"/>
-      <c r="G2" s="29"/>
-      <c r="H2" s="29"/>
-      <c r="I2" s="29"/>
+      <c r="D2" s="30"/>
+      <c r="E2" s="30"/>
+      <c r="F2" s="30"/>
+      <c r="G2" s="30"/>
+      <c r="H2" s="30"/>
+      <c r="I2" s="30"/>
       <c r="J2" s="15"/>
       <c r="K2" s="15"/>
       <c r="L2" s="15"/>
@@ -2251,17 +2253,17 @@
       <c r="R2" s="9"/>
     </row>
     <row r="3" spans="1:18" ht="24" customHeight="1">
-      <c r="A3" s="25" t="s">
+      <c r="A3" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="26"/>
-      <c r="C3" s="26"/>
-      <c r="D3" s="26"/>
-      <c r="E3" s="26"/>
-      <c r="F3" s="26"/>
-      <c r="G3" s="26"/>
-      <c r="H3" s="26"/>
-      <c r="I3" s="26"/>
+      <c r="B3" s="27"/>
+      <c r="C3" s="27"/>
+      <c r="D3" s="27"/>
+      <c r="E3" s="27"/>
+      <c r="F3" s="27"/>
+      <c r="G3" s="27"/>
+      <c r="H3" s="27"/>
+      <c r="I3" s="27"/>
       <c r="J3" s="13"/>
       <c r="K3" s="13"/>
       <c r="L3" s="13"/>
@@ -2273,15 +2275,15 @@
       <c r="R3" s="9"/>
     </row>
     <row r="4" spans="1:18" ht="24" customHeight="1">
-      <c r="A4" s="25"/>
-      <c r="B4" s="26"/>
-      <c r="C4" s="26"/>
-      <c r="D4" s="26"/>
-      <c r="E4" s="26"/>
-      <c r="F4" s="26"/>
-      <c r="G4" s="26"/>
-      <c r="H4" s="26"/>
-      <c r="I4" s="26"/>
+      <c r="A4" s="26"/>
+      <c r="B4" s="27"/>
+      <c r="C4" s="27"/>
+      <c r="D4" s="27"/>
+      <c r="E4" s="27"/>
+      <c r="F4" s="27"/>
+      <c r="G4" s="27"/>
+      <c r="H4" s="27"/>
+      <c r="I4" s="27"/>
       <c r="J4" s="13"/>
       <c r="K4" s="13"/>
       <c r="L4" s="13"/>
@@ -2623,7 +2625,7 @@
       <c r="R16" s="9"/>
     </row>
     <row r="17" spans="1:18" ht="24" customHeight="1">
-      <c r="A17" s="25" t="s">
+      <c r="A17" s="26" t="s">
         <v>39</v>
       </c>
       <c r="B17" s="13"/>
@@ -2645,7 +2647,7 @@
       <c r="R17" s="9"/>
     </row>
     <row r="18" spans="1:18" ht="24" customHeight="1">
-      <c r="A18" s="25"/>
+      <c r="A18" s="26"/>
       <c r="B18" s="13"/>
       <c r="C18" s="13"/>
       <c r="D18" s="13"/>

--- a/副本 算法25期—五毒练习（复制到本地操作）.xlsx
+++ b/副本 算法25期—五毒练习（复制到本地操作）.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aaronsomelee/CurrentWork/geek-camp/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73EBEC9A-0BB1-C340-B25C-5569B9F3A375}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF3CD8DA-1469-B949-9B3B-E4B5BCBAEABF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="20540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -302,6 +302,7 @@
       <sz val="14"/>
       <color rgb="FFFFFFFF"/>
       <name val="等线"/>
+      <family val="4"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -310,6 +311,7 @@
       <sz val="12"/>
       <color rgb="FFFFFFFF"/>
       <name val="等线"/>
+      <family val="4"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -317,18 +319,21 @@
       <b/>
       <sz val="12"/>
       <name val="等线"/>
+      <family val="4"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
       <name val="等线"/>
+      <family val="4"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
       <name val="等线"/>
+      <family val="4"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -337,6 +342,7 @@
       <sz val="9"/>
       <color indexed="30"/>
       <name val="等线"/>
+      <family val="4"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -862,7 +868,7 @@
   <dimension ref="A1:Q58"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A8" zoomScale="113" workbookViewId="0">
-      <selection activeCell="L24" sqref="L24"/>
+      <selection activeCell="K25" sqref="K25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>

--- a/副本 算法25期—五毒练习（复制到本地操作）.xlsx
+++ b/副本 算法25期—五毒练习（复制到本地操作）.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aaronsomelee/CurrentWork/geek-camp/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF3CD8DA-1469-B949-9B3B-E4B5BCBAEABF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A089420-2351-1141-AC3C-C7C6FF2E0A82}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="20540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="86">
   <si>
     <t>题号</t>
   </si>
@@ -284,6 +284,10 @@
   </si>
   <si>
     <t xml:space="preserve"> </t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>4. 14</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
@@ -867,8 +871,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="113" workbookViewId="0">
-      <selection activeCell="K25" sqref="K25"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="113" workbookViewId="0">
+      <selection activeCell="K8" sqref="K8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1060,8 +1064,8 @@
       <c r="E7" s="24" t="s">
         <v>82</v>
       </c>
-      <c r="F7" s="8" t="s">
-        <v>13</v>
+      <c r="F7" s="21" t="s">
+        <v>85</v>
       </c>
       <c r="G7" s="8" t="s">
         <v>13</v>
